--- a/zpokemonz/Assets/Excel/Chapter/剧情表模版.xlsx
+++ b/zpokemonz/Assets/Excel/Chapter/剧情表模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12140"/>
+    <workbookView windowWidth="28800" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>测试剧情片段1</t>
   </si>
@@ -74,6 +74,43 @@
   </si>
   <si>
     <t>BackGameScene</t>
+  </si>
+  <si>
+    <t>事例剧情</t>
+  </si>
+  <si>
+    <t>克蕾雅</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Texture/Chara/Aurelia.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们不惜吝啬几十万军人的鲜血，换来的却只是一纸屈辱性的合约，祖国在紧随而至的大革命中土崩瓦解！
+</t>
+  </si>
+  <si>
+    <t>祖国如此，我也如此。</t>
+  </si>
+  <si>
+    <t>我的人生也一败涂地……</t>
+  </si>
+  <si>
+    <t>奥蕾利亚</t>
+  </si>
+  <si>
+    <t>Assets/Resources/Texture/Chara/Claire.png</t>
+  </si>
+  <si>
+    <t>克蕾雅，你可不能自暴自弃呀……</t>
+  </si>
+  <si>
+    <t>覆水难收，而我们只能往前看。</t>
+  </si>
+  <si>
+    <t>我们会英勇地击败任何敌人，在战场上。</t>
+  </si>
+  <si>
+    <t>如果需要的话，我们会再来一次……</t>
   </si>
 </sst>
 </file>
@@ -81,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -128,6 +165,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -135,9 +204,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,9 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,9 +235,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,43 +274,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,35 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,73 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,97 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,13 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,9 +587,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,142 +600,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +754,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1036,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1185,6 +1225,135 @@
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20" customHeight="1" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="20" customHeight="1" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="38" customHeight="1" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="28" customHeight="1" spans="2:3">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="28" customHeight="1" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="28" customHeight="1" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="19" customHeight="1" spans="2:3">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="19" customHeight="1" spans="2:3">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="20" customHeight="1" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="19" customHeight="1" spans="2:3">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="19" customHeight="1" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
